--- a/public/fixed-costs.xlsx
+++ b/public/fixed-costs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="aio" sheetId="1" state="visible" r:id="rId3"/>
@@ -148,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -179,6 +179,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -372,8 +376,8 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,7 +410,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>25.5</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
@@ -474,8 +478,8 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,8 +515,8 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>25.5</v>
+      <c r="C2" s="8" t="n">
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
